--- a/umg_factory/new_mech_list.xlsx
+++ b/umg_factory/new_mech_list.xlsx
@@ -397,6 +397,86 @@
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2724150" cy="3038475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2724150" cy="3038475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>66</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2724150" cy="3038475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,7 +763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -710,7 +790,11 @@
       <c r="C2" s="30" t="n"/>
       <c r="D2" s="30" t="n"/>
       <c r="E2" s="30" t="n"/>
-      <c r="F2" s="31" t="n"/>
+      <c r="F2" s="31" t="inlineStr">
+        <is>
+          <t>Miracle Runner</t>
+        </is>
+      </c>
       <c r="G2" s="30" t="n"/>
       <c r="H2" s="30" t="n"/>
       <c r="I2" s="30" t="n"/>
@@ -754,7 +838,11 @@
       <c r="C4" s="36" t="n"/>
       <c r="D4" s="36" t="n"/>
       <c r="E4" s="36" t="n"/>
-      <c r="F4" s="37" t="n"/>
+      <c r="F4" s="37" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
       <c r="G4" s="36" t="n"/>
       <c r="H4" s="36" t="n"/>
       <c r="I4" s="36" t="n"/>
@@ -804,7 +892,9 @@
       <c r="L6" s="34" t="n"/>
       <c r="M6" s="34" t="n"/>
       <c r="N6" s="35" t="n"/>
-      <c r="O6" s="44" t="n"/>
+      <c r="O6" s="44" t="n">
+        <v>3</v>
+      </c>
       <c r="P6" s="45" t="n"/>
       <c r="Q6" s="45" t="n"/>
       <c r="R6" s="45" t="n"/>
@@ -818,7 +908,9 @@
           <t>pts</t>
         </is>
       </c>
-      <c r="M7" s="48" t="n"/>
+      <c r="M7" s="48" t="n">
+        <v>3</v>
+      </c>
       <c r="O7" s="49" t="n"/>
       <c r="P7" s="50" t="n"/>
       <c r="Q7" s="45" t="n"/>
@@ -843,7 +935,9 @@
         </is>
       </c>
       <c r="L9" s="30" t="n"/>
-      <c r="M9" s="52" t="n"/>
+      <c r="M9" s="52" t="n">
+        <v>3</v>
+      </c>
       <c r="N9" s="32" t="n"/>
       <c r="O9" s="49" t="n"/>
       <c r="P9" s="45" t="n"/>
@@ -872,7 +966,9 @@
           <t>EG</t>
         </is>
       </c>
-      <c r="M11" s="48" t="n"/>
+      <c r="M11" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="O11" s="49" t="n"/>
       <c r="P11" s="45" t="n"/>
       <c r="Q11" s="45" t="n"/>
@@ -1212,7 +1308,11 @@
       <c r="C33" s="30" t="n"/>
       <c r="D33" s="30" t="n"/>
       <c r="E33" s="30" t="n"/>
-      <c r="F33" s="31" t="n"/>
+      <c r="F33" s="31" t="inlineStr">
+        <is>
+          <t>Halo</t>
+        </is>
+      </c>
       <c r="G33" s="30" t="n"/>
       <c r="H33" s="30" t="n"/>
       <c r="I33" s="30" t="n"/>
@@ -1256,7 +1356,11 @@
       <c r="C35" s="36" t="n"/>
       <c r="D35" s="36" t="n"/>
       <c r="E35" s="36" t="n"/>
-      <c r="F35" s="37" t="n"/>
+      <c r="F35" s="37" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
       <c r="G35" s="36" t="n"/>
       <c r="H35" s="36" t="n"/>
       <c r="I35" s="36" t="n"/>
@@ -1306,7 +1410,9 @@
       <c r="L37" s="34" t="n"/>
       <c r="M37" s="34" t="n"/>
       <c r="N37" s="35" t="n"/>
-      <c r="O37" s="44" t="n"/>
+      <c r="O37" s="44" t="n">
+        <v>3</v>
+      </c>
       <c r="P37" s="45" t="n"/>
       <c r="Q37" s="45" t="n"/>
       <c r="R37" s="45" t="n"/>
@@ -1320,7 +1426,9 @@
           <t>pts</t>
         </is>
       </c>
-      <c r="M38" s="48" t="n"/>
+      <c r="M38" s="48" t="n">
+        <v>3</v>
+      </c>
       <c r="O38" s="49" t="n"/>
       <c r="P38" s="50" t="n"/>
       <c r="Q38" s="45" t="n"/>
@@ -1345,7 +1453,9 @@
         </is>
       </c>
       <c r="L40" s="30" t="n"/>
-      <c r="M40" s="52" t="n"/>
+      <c r="M40" s="52" t="n">
+        <v>3</v>
+      </c>
       <c r="N40" s="32" t="n"/>
       <c r="O40" s="49" t="n"/>
       <c r="P40" s="45" t="n"/>
@@ -1374,7 +1484,9 @@
           <t>EG</t>
         </is>
       </c>
-      <c r="M42" s="48" t="n"/>
+      <c r="M42" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="O42" s="49" t="n"/>
       <c r="P42" s="45" t="n"/>
       <c r="Q42" s="45" t="n"/>
@@ -1714,7 +1826,11 @@
       <c r="C64" s="30" t="n"/>
       <c r="D64" s="30" t="n"/>
       <c r="E64" s="30" t="n"/>
-      <c r="F64" s="31" t="n"/>
+      <c r="F64" s="31" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
       <c r="G64" s="30" t="n"/>
       <c r="H64" s="30" t="n"/>
       <c r="I64" s="30" t="n"/>
@@ -1758,7 +1874,11 @@
       <c r="C66" s="36" t="n"/>
       <c r="D66" s="36" t="n"/>
       <c r="E66" s="36" t="n"/>
-      <c r="F66" s="37" t="n"/>
+      <c r="F66" s="37" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
       <c r="G66" s="36" t="n"/>
       <c r="H66" s="36" t="n"/>
       <c r="I66" s="36" t="n"/>
@@ -1808,7 +1928,9 @@
       <c r="L68" s="34" t="n"/>
       <c r="M68" s="34" t="n"/>
       <c r="N68" s="35" t="n"/>
-      <c r="O68" s="44" t="n"/>
+      <c r="O68" s="44" t="n">
+        <v>3</v>
+      </c>
       <c r="P68" s="45" t="n"/>
       <c r="Q68" s="45" t="n"/>
       <c r="R68" s="45" t="n"/>
@@ -1822,7 +1944,9 @@
           <t>pts</t>
         </is>
       </c>
-      <c r="M69" s="48" t="n"/>
+      <c r="M69" s="48" t="n">
+        <v>3</v>
+      </c>
       <c r="O69" s="49" t="n"/>
       <c r="P69" s="50" t="n"/>
       <c r="Q69" s="45" t="n"/>
@@ -1847,7 +1971,9 @@
         </is>
       </c>
       <c r="L71" s="30" t="n"/>
-      <c r="M71" s="52" t="n"/>
+      <c r="M71" s="52" t="n">
+        <v>3</v>
+      </c>
       <c r="N71" s="32" t="n"/>
       <c r="O71" s="49" t="n"/>
       <c r="P71" s="45" t="n"/>
@@ -1876,7 +2002,9 @@
           <t>EG</t>
         </is>
       </c>
-      <c r="M73" s="48" t="n"/>
+      <c r="M73" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="O73" s="49" t="n"/>
       <c r="P73" s="45" t="n"/>
       <c r="Q73" s="45" t="n"/>
@@ -4492,5 +4620,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/umg_factory/new_mech_list.xlsx
+++ b/umg_factory/new_mech_list.xlsx
@@ -792,7 +792,7 @@
       <c r="E2" s="30" t="n"/>
       <c r="F2" s="31" t="inlineStr">
         <is>
-          <t>Miracle Runner</t>
+          <t>Galactica</t>
         </is>
       </c>
       <c r="G2" s="30" t="n"/>
@@ -1310,7 +1310,7 @@
       <c r="E33" s="30" t="n"/>
       <c r="F33" s="31" t="inlineStr">
         <is>
-          <t>Halo</t>
+          <t>BYZ5</t>
         </is>
       </c>
       <c r="G33" s="30" t="n"/>
@@ -1828,7 +1828,7 @@
       <c r="E64" s="30" t="n"/>
       <c r="F64" s="31" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>HAL 9000</t>
         </is>
       </c>
       <c r="G64" s="30" t="n"/>
